--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itga9</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.847765708294179</v>
+        <v>3.654681666666667</v>
       </c>
       <c r="H2">
-        <v>0.847765708294179</v>
+        <v>10.964045</v>
       </c>
       <c r="I2">
-        <v>0.009984807133130618</v>
+        <v>0.0410343331141888</v>
       </c>
       <c r="J2">
-        <v>0.009984807133130618</v>
+        <v>0.04103433311418879</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N2">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O2">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P2">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q2">
-        <v>1.292618734917933</v>
+        <v>9.478531415858889</v>
       </c>
       <c r="R2">
-        <v>1.292618734917933</v>
+        <v>85.30678274273001</v>
       </c>
       <c r="S2">
-        <v>0.0006675590835859344</v>
+        <v>0.003879084398217764</v>
       </c>
       <c r="T2">
-        <v>0.0006675590835859344</v>
+        <v>0.003879084398217763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.847765708294179</v>
+        <v>3.654681666666667</v>
       </c>
       <c r="H3">
-        <v>0.847765708294179</v>
+        <v>10.964045</v>
       </c>
       <c r="I3">
-        <v>0.009984807133130618</v>
+        <v>0.0410343331141888</v>
       </c>
       <c r="J3">
-        <v>0.009984807133130618</v>
+        <v>0.04103433311418879</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N3">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O3">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P3">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q3">
-        <v>3.007531670628714</v>
+        <v>13.17626279610444</v>
       </c>
       <c r="R3">
-        <v>3.007531670628714</v>
+        <v>118.58636516494</v>
       </c>
       <c r="S3">
-        <v>0.00155320747848208</v>
+        <v>0.005392379177397542</v>
       </c>
       <c r="T3">
-        <v>0.00155320747848208</v>
+        <v>0.005392379177397542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.847765708294179</v>
+        <v>3.654681666666667</v>
       </c>
       <c r="H4">
-        <v>0.847765708294179</v>
+        <v>10.964045</v>
       </c>
       <c r="I4">
-        <v>0.009984807133130618</v>
+        <v>0.0410343331141888</v>
       </c>
       <c r="J4">
-        <v>0.009984807133130618</v>
+        <v>0.04103433311418879</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N4">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O4">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P4">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q4">
-        <v>4.245181722223047</v>
+        <v>30.853206371575</v>
       </c>
       <c r="R4">
-        <v>4.245181722223047</v>
+        <v>277.678857344175</v>
       </c>
       <c r="S4">
-        <v>0.002192378575050515</v>
+        <v>0.01262665978726669</v>
       </c>
       <c r="T4">
-        <v>0.002192378575050515</v>
+        <v>0.01262665978726669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.847765708294179</v>
+        <v>3.654681666666667</v>
       </c>
       <c r="H5">
-        <v>0.847765708294179</v>
+        <v>10.964045</v>
       </c>
       <c r="I5">
-        <v>0.009984807133130618</v>
+        <v>0.0410343331141888</v>
       </c>
       <c r="J5">
-        <v>0.009984807133130618</v>
+        <v>0.04103433311418879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N5">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O5">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P5">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q5">
-        <v>9.969791734308139</v>
+        <v>43.10696538542445</v>
       </c>
       <c r="R5">
-        <v>9.969791734308139</v>
+        <v>387.96268846882</v>
       </c>
       <c r="S5">
-        <v>0.005148792024989419</v>
+        <v>0.01764150473788993</v>
       </c>
       <c r="T5">
-        <v>0.005148792024989419</v>
+        <v>0.01764150473788993</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.847765708294179</v>
+        <v>3.654681666666667</v>
       </c>
       <c r="H6">
-        <v>0.847765708294179</v>
+        <v>10.964045</v>
       </c>
       <c r="I6">
-        <v>0.009984807133130618</v>
+        <v>0.0410343331141888</v>
       </c>
       <c r="J6">
-        <v>0.009984807133130618</v>
+        <v>0.04103433311418879</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N6">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O6">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P6">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q6">
-        <v>0.5334510433050683</v>
+        <v>2.308629516698333</v>
       </c>
       <c r="R6">
-        <v>0.5334510433050683</v>
+        <v>20.777665650285</v>
       </c>
       <c r="S6">
-        <v>0.000275495070578024</v>
+        <v>0.0009448055132787718</v>
       </c>
       <c r="T6">
-        <v>0.000275495070578024</v>
+        <v>0.0009448055132787718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.847765708294179</v>
+        <v>3.654681666666667</v>
       </c>
       <c r="H7">
-        <v>0.847765708294179</v>
+        <v>10.964045</v>
       </c>
       <c r="I7">
-        <v>0.009984807133130618</v>
+        <v>0.0410343331141888</v>
       </c>
       <c r="J7">
-        <v>0.009984807133130618</v>
+        <v>0.04103433311418879</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N7">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O7">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P7">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q7">
-        <v>0.28536733609871</v>
+        <v>1.343677825112222</v>
       </c>
       <c r="R7">
-        <v>0.28536733609871</v>
+        <v>12.09310042601</v>
       </c>
       <c r="S7">
-        <v>0.0001473749004446457</v>
+        <v>0.0005498995001380914</v>
       </c>
       <c r="T7">
-        <v>0.0001473749004446457</v>
+        <v>0.0005498995001380913</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.5901909650247</v>
+        <v>76.62716166666667</v>
       </c>
       <c r="H8">
-        <v>76.5901909650247</v>
+        <v>229.881485</v>
       </c>
       <c r="I8">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="J8">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N8">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O8">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P8">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q8">
-        <v>116.779806948713</v>
+        <v>198.7349447668989</v>
       </c>
       <c r="R8">
-        <v>116.779806948713</v>
+        <v>1788.61450290209</v>
       </c>
       <c r="S8">
-        <v>0.06030967895028583</v>
+        <v>0.08133218003963234</v>
       </c>
       <c r="T8">
-        <v>0.06030967895028583</v>
+        <v>0.08133218003963234</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.5901909650247</v>
+        <v>76.62716166666667</v>
       </c>
       <c r="H9">
-        <v>76.5901909650247</v>
+        <v>229.881485</v>
       </c>
       <c r="I9">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="J9">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N9">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O9">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P9">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q9">
-        <v>271.7111847450207</v>
+        <v>276.2647233132244</v>
       </c>
       <c r="R9">
-        <v>271.7111847450207</v>
+        <v>2486.38250981902</v>
       </c>
       <c r="S9">
-        <v>0.1403223275268019</v>
+        <v>0.1130612044170947</v>
       </c>
       <c r="T9">
-        <v>0.1403223275268019</v>
+        <v>0.1130612044170947</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.5901909650247</v>
+        <v>76.62716166666667</v>
       </c>
       <c r="H10">
-        <v>76.5901909650247</v>
+        <v>229.881485</v>
       </c>
       <c r="I10">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="J10">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N10">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O10">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P10">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q10">
-        <v>383.5249239327226</v>
+        <v>646.894544641975</v>
       </c>
       <c r="R10">
-        <v>383.5249239327226</v>
+        <v>5822.050901777775</v>
       </c>
       <c r="S10">
-        <v>0.1980673340380977</v>
+        <v>0.2647412795630309</v>
       </c>
       <c r="T10">
-        <v>0.1980673340380977</v>
+        <v>0.264741279563031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>76.5901909650247</v>
+        <v>76.62716166666667</v>
       </c>
       <c r="H11">
-        <v>76.5901909650247</v>
+        <v>229.881485</v>
       </c>
       <c r="I11">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="J11">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N11">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O11">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P11">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q11">
-        <v>900.7066991995106</v>
+        <v>903.8172696887844</v>
       </c>
       <c r="R11">
-        <v>900.7066991995106</v>
+        <v>8134.35542719906</v>
       </c>
       <c r="S11">
-        <v>0.4651603156096229</v>
+        <v>0.3698867805431912</v>
       </c>
       <c r="T11">
-        <v>0.4651603156096229</v>
+        <v>0.3698867805431912</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>76.5901909650247</v>
+        <v>76.62716166666667</v>
       </c>
       <c r="H12">
-        <v>76.5901909650247</v>
+        <v>229.881485</v>
       </c>
       <c r="I12">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="J12">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N12">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O12">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P12">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q12">
-        <v>48.19387818768581</v>
+        <v>48.40468838037833</v>
       </c>
       <c r="R12">
-        <v>48.19387818768581</v>
+        <v>435.642195423405</v>
       </c>
       <c r="S12">
-        <v>0.02488921155816783</v>
+        <v>0.01980959531164923</v>
       </c>
       <c r="T12">
-        <v>0.02488921155816783</v>
+        <v>0.01980959531164924</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>76.5901909650247</v>
+        <v>76.62716166666667</v>
       </c>
       <c r="H13">
-        <v>76.5901909650247</v>
+        <v>229.881485</v>
       </c>
       <c r="I13">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="J13">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N13">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O13">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P13">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q13">
-        <v>25.781107389869</v>
+        <v>28.17269117359222</v>
       </c>
       <c r="R13">
-        <v>25.781107389869</v>
+        <v>253.55422056233</v>
       </c>
       <c r="S13">
-        <v>0.01331437643452088</v>
+        <v>0.01152966023876244</v>
       </c>
       <c r="T13">
-        <v>0.01331437643452088</v>
+        <v>0.01152966023876244</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0438723779551504</v>
+        <v>0.009750666666666666</v>
       </c>
       <c r="H14">
-        <v>0.0438723779551504</v>
+        <v>0.029252</v>
       </c>
       <c r="I14">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="J14">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N14">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O14">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P14">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q14">
-        <v>0.06689378578939781</v>
+        <v>0.02528865952088889</v>
       </c>
       <c r="R14">
-        <v>0.06689378578939781</v>
+        <v>0.227597935688</v>
       </c>
       <c r="S14">
-        <v>3.454657830098629E-05</v>
+        <v>1.034937167958231E-05</v>
       </c>
       <c r="T14">
-        <v>3.454657830098629E-05</v>
+        <v>1.034937167958231E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0438723779551504</v>
+        <v>0.009750666666666666</v>
       </c>
       <c r="H15">
-        <v>0.0438723779551504</v>
+        <v>0.029252</v>
       </c>
       <c r="I15">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="J15">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N15">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O15">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P15">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q15">
-        <v>0.1556415468035437</v>
+        <v>0.03515418254044444</v>
       </c>
       <c r="R15">
-        <v>0.1556415468035437</v>
+        <v>0.316387642864</v>
       </c>
       <c r="S15">
-        <v>8.037940774444018E-05</v>
+        <v>1.438683220446768E-05</v>
       </c>
       <c r="T15">
-        <v>8.037940774444018E-05</v>
+        <v>1.438683220446769E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0438723779551504</v>
+        <v>0.009750666666666666</v>
       </c>
       <c r="H16">
-        <v>0.0438723779551504</v>
+        <v>0.029252</v>
       </c>
       <c r="I16">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="J16">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N16">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O16">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P16">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q16">
-        <v>0.2196906706458071</v>
+        <v>0.08231615181999999</v>
       </c>
       <c r="R16">
-        <v>0.2196906706458071</v>
+        <v>0.74084536638</v>
       </c>
       <c r="S16">
-        <v>0.0001134568908890257</v>
+        <v>3.368784532507166E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001134568908890257</v>
+        <v>3.368784532507166E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.0438723779551504</v>
+        <v>0.009750666666666666</v>
       </c>
       <c r="H17">
-        <v>0.0438723779551504</v>
+        <v>0.029252</v>
       </c>
       <c r="I17">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="J17">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N17">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O17">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P17">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q17">
-        <v>0.5159426322890635</v>
+        <v>0.1150091003324444</v>
       </c>
       <c r="R17">
-        <v>0.5159426322890635</v>
+        <v>1.035081902992</v>
       </c>
       <c r="S17">
-        <v>0.000266453039469267</v>
+        <v>4.706741869380837E-05</v>
       </c>
       <c r="T17">
-        <v>0.000266453039469267</v>
+        <v>4.706741869380838E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.0438723779551504</v>
+        <v>0.009750666666666666</v>
       </c>
       <c r="H18">
-        <v>0.0438723779551504</v>
+        <v>0.029252</v>
       </c>
       <c r="I18">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="J18">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N18">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O18">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P18">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q18">
-        <v>0.02760640771793052</v>
+        <v>0.006159408377333333</v>
       </c>
       <c r="R18">
-        <v>0.02760640771793052</v>
+        <v>0.055434675396</v>
       </c>
       <c r="S18">
-        <v>1.425703321440054E-05</v>
+        <v>2.520734899795708E-06</v>
       </c>
       <c r="T18">
-        <v>1.425703321440054E-05</v>
+        <v>2.520734899795708E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.0438723779551504</v>
+        <v>0.009750666666666666</v>
       </c>
       <c r="H19">
-        <v>0.0438723779551504</v>
+        <v>0.029252</v>
       </c>
       <c r="I19">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="J19">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N19">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O19">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P19">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q19">
-        <v>0.01476792880732164</v>
+        <v>0.003584923606222222</v>
       </c>
       <c r="R19">
-        <v>0.01476792880732164</v>
+        <v>0.032264312456</v>
       </c>
       <c r="S19">
-        <v>7.626738461054305E-06</v>
+        <v>1.467128252213435E-06</v>
       </c>
       <c r="T19">
-        <v>7.626738461054305E-06</v>
+        <v>1.467128252213435E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.42373767531852</v>
+        <v>0.07944766666666667</v>
       </c>
       <c r="H20">
-        <v>7.42373767531852</v>
+        <v>0.238343</v>
       </c>
       <c r="I20">
-        <v>0.08743522906129303</v>
+        <v>0.0008920289963635775</v>
       </c>
       <c r="J20">
-        <v>0.08743522906129303</v>
+        <v>0.0008920289963635774</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N20">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O20">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P20">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q20">
-        <v>11.31923868628918</v>
+        <v>0.2060500128602222</v>
       </c>
       <c r="R20">
-        <v>11.31923868628918</v>
+        <v>1.854450115742</v>
       </c>
       <c r="S20">
-        <v>0.005845699431850957</v>
+        <v>8.432586811933155E-05</v>
       </c>
       <c r="T20">
-        <v>0.005845699431850957</v>
+        <v>8.432586811933154E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.42373767531852</v>
+        <v>0.07944766666666667</v>
       </c>
       <c r="H21">
-        <v>7.42373767531852</v>
+        <v>0.238343</v>
       </c>
       <c r="I21">
-        <v>0.08743522906129303</v>
+        <v>0.0008920289963635775</v>
       </c>
       <c r="J21">
-        <v>0.08743522906129303</v>
+        <v>0.0008920289963635774</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N21">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O21">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P21">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q21">
-        <v>26.33643464759299</v>
+        <v>0.2864335200751111</v>
       </c>
       <c r="R21">
-        <v>26.33643464759299</v>
+        <v>2.577901680676</v>
       </c>
       <c r="S21">
-        <v>0.01360116924143471</v>
+        <v>0.000117222779574369</v>
       </c>
       <c r="T21">
-        <v>0.01360116924143471</v>
+        <v>0.000117222779574369</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.42373767531852</v>
+        <v>0.07944766666666667</v>
       </c>
       <c r="H22">
-        <v>7.42373767531852</v>
+        <v>0.238343</v>
       </c>
       <c r="I22">
-        <v>0.08743522906129303</v>
+        <v>0.0008920289963635775</v>
       </c>
       <c r="J22">
-        <v>0.08743522906129303</v>
+        <v>0.0008920289963635774</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N22">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O22">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P22">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q22">
-        <v>37.17432208157314</v>
+        <v>0.6707055440049999</v>
       </c>
       <c r="R22">
-        <v>37.17432208157314</v>
+        <v>6.036349896045</v>
       </c>
       <c r="S22">
-        <v>0.01919827998104861</v>
+        <v>0.000274485919537589</v>
       </c>
       <c r="T22">
-        <v>0.01919827998104861</v>
+        <v>0.0002744859195375891</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.42373767531852</v>
+        <v>0.07944766666666667</v>
       </c>
       <c r="H23">
-        <v>7.42373767531852</v>
+        <v>0.238343</v>
       </c>
       <c r="I23">
-        <v>0.08743522906129303</v>
+        <v>0.0008920289963635775</v>
       </c>
       <c r="J23">
-        <v>0.08743522906129303</v>
+        <v>0.0008920289963635774</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N23">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O23">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P23">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q23">
-        <v>87.30374181091501</v>
+        <v>0.937085122403111</v>
       </c>
       <c r="R23">
-        <v>87.30374181091501</v>
+        <v>8.433766101628001</v>
       </c>
       <c r="S23">
-        <v>0.04508708121162859</v>
+        <v>0.0003835016331785303</v>
       </c>
       <c r="T23">
-        <v>0.04508708121162859</v>
+        <v>0.0003835016331785303</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.42373767531852</v>
+        <v>0.07944766666666667</v>
       </c>
       <c r="H24">
-        <v>7.42373767531852</v>
+        <v>0.238343</v>
       </c>
       <c r="I24">
-        <v>0.08743522906129303</v>
+        <v>0.0008920289963635775</v>
       </c>
       <c r="J24">
-        <v>0.08743522906129303</v>
+        <v>0.0008920289963635774</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N24">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O24">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P24">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q24">
-        <v>4.671338518858323</v>
+        <v>0.05018637600433333</v>
       </c>
       <c r="R24">
-        <v>4.671338518858323</v>
+        <v>0.451677384039</v>
       </c>
       <c r="S24">
-        <v>0.002412462682561012</v>
+        <v>2.05387501101466E-05</v>
       </c>
       <c r="T24">
-        <v>0.002412462682561012</v>
+        <v>2.05387501101466E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.07944766666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.238343</v>
+      </c>
+      <c r="I25">
+        <v>0.0008920289963635775</v>
+      </c>
+      <c r="J25">
+        <v>0.0008920289963635774</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3676593333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.102978</v>
+      </c>
+      <c r="O25">
+        <v>0.01340096105882486</v>
+      </c>
+      <c r="P25">
+        <v>0.01340096105882486</v>
+      </c>
+      <c r="Q25">
+        <v>0.02920967616155556</v>
+      </c>
+      <c r="R25">
+        <v>0.262887085454</v>
+      </c>
+      <c r="S25">
+        <v>1.195404584361092E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.195404584361092E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.06517299999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.195519</v>
+      </c>
+      <c r="I26">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="J26">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.593531333333333</v>
+      </c>
+      <c r="N26">
+        <v>7.780594</v>
+      </c>
+      <c r="O26">
+        <v>0.09453265360553549</v>
+      </c>
+      <c r="P26">
+        <v>0.09453265360553549</v>
+      </c>
+      <c r="Q26">
+        <v>0.1690282175873333</v>
+      </c>
+      <c r="R26">
+        <v>1.521253958286</v>
+      </c>
+      <c r="S26">
+        <v>6.91747163072697E-05</v>
+      </c>
+      <c r="T26">
+        <v>6.91747163072697E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.06517299999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.195519</v>
+      </c>
+      <c r="I27">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="J27">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.605310666666667</v>
+      </c>
+      <c r="N27">
+        <v>10.815932</v>
+      </c>
+      <c r="O27">
+        <v>0.1314114003605671</v>
+      </c>
+      <c r="P27">
+        <v>0.1314114003605672</v>
+      </c>
+      <c r="Q27">
+        <v>0.2349689120786666</v>
+      </c>
+      <c r="R27">
+        <v>2.114720208708</v>
+      </c>
+      <c r="S27">
+        <v>9.616091363959103E-05</v>
+      </c>
+      <c r="T27">
+        <v>9.616091363959104E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.06517299999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.195519</v>
+      </c>
+      <c r="I28">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="J28">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.442105</v>
+      </c>
+      <c r="N28">
+        <v>25.326315</v>
+      </c>
+      <c r="O28">
+        <v>0.3077096379787555</v>
+      </c>
+      <c r="P28">
+        <v>0.3077096379787556</v>
+      </c>
+      <c r="Q28">
+        <v>0.550197309165</v>
+      </c>
+      <c r="R28">
+        <v>4.951775782485</v>
+      </c>
+      <c r="S28">
+        <v>0.0002251679827058897</v>
+      </c>
+      <c r="T28">
+        <v>0.0002251679827058897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.06517299999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.195519</v>
+      </c>
+      <c r="I29">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="J29">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.79499866666667</v>
+      </c>
+      <c r="N29">
+        <v>35.384996</v>
+      </c>
+      <c r="O29">
+        <v>0.4299205908573637</v>
+      </c>
+      <c r="P29">
+        <v>0.4299205908573637</v>
+      </c>
+      <c r="Q29">
+        <v>0.7687154481026666</v>
+      </c>
+      <c r="R29">
+        <v>6.918439032924</v>
+      </c>
+      <c r="S29">
+        <v>0.000314596425392955</v>
+      </c>
+      <c r="T29">
+        <v>0.000314596425392955</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.06517299999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.195519</v>
+      </c>
+      <c r="I30">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="J30">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.631691</v>
+      </c>
+      <c r="N30">
+        <v>1.895073</v>
+      </c>
+      <c r="O30">
+        <v>0.02302475613895327</v>
+      </c>
+      <c r="P30">
+        <v>0.02302475613895327</v>
+      </c>
+      <c r="Q30">
+        <v>0.041169197543</v>
+      </c>
+      <c r="R30">
+        <v>0.370522777887</v>
+      </c>
+      <c r="S30">
+        <v>1.684847418546277E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.684847418546277E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.06517299999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.195519</v>
+      </c>
+      <c r="I31">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="J31">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.3676593333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.102978</v>
+      </c>
+      <c r="O31">
+        <v>0.01340096105882486</v>
+      </c>
+      <c r="P31">
+        <v>0.01340096105882486</v>
+      </c>
+      <c r="Q31">
+        <v>0.02396146173133333</v>
+      </c>
+      <c r="R31">
+        <v>0.215653155582</v>
+      </c>
+      <c r="S31">
+        <v>9.806216626026203E-06</v>
+      </c>
+      <c r="T31">
+        <v>9.806216626026203E-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>8.627781000000001</v>
+      </c>
+      <c r="H32">
+        <v>25.883343</v>
+      </c>
+      <c r="I32">
+        <v>0.09687170371617471</v>
+      </c>
+      <c r="J32">
+        <v>0.09687170371617469</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.593531333333333</v>
+      </c>
+      <c r="N32">
+        <v>7.780594</v>
+      </c>
+      <c r="O32">
+        <v>0.09453265360553549</v>
+      </c>
+      <c r="P32">
+        <v>0.09453265360553549</v>
+      </c>
+      <c r="Q32">
+        <v>22.376420360638</v>
+      </c>
+      <c r="R32">
+        <v>201.387783245742</v>
+      </c>
+      <c r="S32">
+        <v>0.009157539211579208</v>
+      </c>
+      <c r="T32">
+        <v>0.009157539211579207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>8.627781000000001</v>
+      </c>
+      <c r="H33">
+        <v>25.883343</v>
+      </c>
+      <c r="I33">
+        <v>0.09687170371617471</v>
+      </c>
+      <c r="J33">
+        <v>0.09687170371617469</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.605310666666667</v>
+      </c>
+      <c r="N33">
+        <v>10.815932</v>
+      </c>
+      <c r="O33">
+        <v>0.1314114003605671</v>
+      </c>
+      <c r="P33">
+        <v>0.1314114003605672</v>
+      </c>
+      <c r="Q33">
+        <v>31.105830868964</v>
+      </c>
+      <c r="R33">
+        <v>279.952477820676</v>
+      </c>
+      <c r="S33">
+        <v>0.01273004624065647</v>
+      </c>
+      <c r="T33">
+        <v>0.01273004624065648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>8.627781000000001</v>
+      </c>
+      <c r="H34">
+        <v>25.883343</v>
+      </c>
+      <c r="I34">
+        <v>0.09687170371617471</v>
+      </c>
+      <c r="J34">
+        <v>0.09687170371617469</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>8.442105</v>
+      </c>
+      <c r="N34">
+        <v>25.326315</v>
+      </c>
+      <c r="O34">
+        <v>0.3077096379787555</v>
+      </c>
+      <c r="P34">
+        <v>0.3077096379787556</v>
+      </c>
+      <c r="Q34">
+        <v>72.836633119005</v>
+      </c>
+      <c r="R34">
+        <v>655.529698071045</v>
+      </c>
+      <c r="S34">
+        <v>0.02980835688088938</v>
+      </c>
+      <c r="T34">
+        <v>0.02980835688088938</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>7.42373767531852</v>
-      </c>
-      <c r="H25">
-        <v>7.42373767531852</v>
-      </c>
-      <c r="I25">
-        <v>0.08743522906129303</v>
-      </c>
-      <c r="J25">
-        <v>0.08743522906129303</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.336611086420219</v>
-      </c>
-      <c r="N25">
-        <v>0.336611086420219</v>
-      </c>
-      <c r="O25">
-        <v>0.01475991458619572</v>
-      </c>
-      <c r="P25">
-        <v>0.01475991458619572</v>
-      </c>
-      <c r="Q25">
-        <v>2.498912404187678</v>
-      </c>
-      <c r="R25">
-        <v>2.498912404187678</v>
-      </c>
-      <c r="S25">
-        <v>0.001290536512769143</v>
-      </c>
-      <c r="T25">
-        <v>0.001290536512769143</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>8.627781000000001</v>
+      </c>
+      <c r="H35">
+        <v>25.883343</v>
+      </c>
+      <c r="I35">
+        <v>0.09687170371617471</v>
+      </c>
+      <c r="J35">
+        <v>0.09687170371617469</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>11.79499866666667</v>
+      </c>
+      <c r="N35">
+        <v>35.384996</v>
+      </c>
+      <c r="O35">
+        <v>0.4299205908573637</v>
+      </c>
+      <c r="P35">
+        <v>0.4299205908573637</v>
+      </c>
+      <c r="Q35">
+        <v>101.764665391292</v>
+      </c>
+      <c r="R35">
+        <v>915.881988521628</v>
+      </c>
+      <c r="S35">
+        <v>0.0416471400990173</v>
+      </c>
+      <c r="T35">
+        <v>0.0416471400990173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>8.627781000000001</v>
+      </c>
+      <c r="H36">
+        <v>25.883343</v>
+      </c>
+      <c r="I36">
+        <v>0.09687170371617471</v>
+      </c>
+      <c r="J36">
+        <v>0.09687170371617469</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.631691</v>
+      </c>
+      <c r="N36">
+        <v>1.895073</v>
+      </c>
+      <c r="O36">
+        <v>0.02302475613895327</v>
+      </c>
+      <c r="P36">
+        <v>0.02302475613895327</v>
+      </c>
+      <c r="Q36">
+        <v>5.450091607671</v>
+      </c>
+      <c r="R36">
+        <v>49.050824469039</v>
+      </c>
+      <c r="S36">
+        <v>0.002230447354829856</v>
+      </c>
+      <c r="T36">
+        <v>0.002230447354829856</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>8.627781000000001</v>
+      </c>
+      <c r="H37">
+        <v>25.883343</v>
+      </c>
+      <c r="I37">
+        <v>0.09687170371617471</v>
+      </c>
+      <c r="J37">
+        <v>0.09687170371617469</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.3676593333333333</v>
+      </c>
+      <c r="N37">
+        <v>1.102978</v>
+      </c>
+      <c r="O37">
+        <v>0.01340096105882486</v>
+      </c>
+      <c r="P37">
+        <v>0.01340096105882486</v>
+      </c>
+      <c r="Q37">
+        <v>3.172084210606</v>
+      </c>
+      <c r="R37">
+        <v>28.548757895454</v>
+      </c>
+      <c r="S37">
+        <v>0.001298173929202476</v>
+      </c>
+      <c r="T37">
+        <v>0.001298173929202476</v>
       </c>
     </row>
   </sheetData>
